--- a/biology/Zoologie/Chien_blanc_(film)/Chien_blanc_(film).xlsx
+++ b/biology/Zoologie/Chien_blanc_(film)/Chien_blanc_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chien blanc est un film québécois réalisé par Anaïs Barbeau-Lavalette et sorti le 9 novembre 2022 au Canada[1],[2],[3],[4],[5].
-Il s'agit d'une adaptation du roman Chien blanc de l'écrivain Romain Gary écrit en 1969 et publié en 1970 aux éditions Gallimard[6]. La dernière adaptation du roman au cinéma remonte à 1982 avec le film Dressé pour tuer (White Dog) réalisé par Samuel Fuller.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chien blanc est un film québécois réalisé par Anaïs Barbeau-Lavalette et sorti le 9 novembre 2022 au Canada.
+Il s'agit d'une adaptation du roman Chien blanc de l'écrivain Romain Gary écrit en 1969 et publié en 1970 aux éditions Gallimard. La dernière adaptation du roman au cinéma remonte à 1982 avec le film Dressé pour tuer (White Dog) réalisé par Samuel Fuller.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1968, peu de temps après l’assassinat de Martin Luther King, l’écrivain humaniste Romain Gary et sa femme, l’actrice et militante Jean Seberg, décident d’accueillir un chien abandonné : un chien blanc qui avait été dressé exclusivement pour attaquer les Noirs[7]. L’histoire raconte comment le couple décide de l'accueillir et de le rééduquer.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1968, peu de temps après l’assassinat de Martin Luther King, l’écrivain humaniste Romain Gary et sa femme, l’actrice et militante Jean Seberg, décident d’accueillir un chien abandonné : un chien blanc qui avait été dressé exclusivement pour attaquer les Noirs. L’histoire raconte comment le couple décide de l'accueillir et de le rééduquer.
 </t>
         </is>
       </c>
@@ -543,20 +557,22 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Titre original : Chien blanc[8],[9],[10],[11].
-Réalisation : Anaïs Barbeau-Lavalette[12],[13],[14]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Titre original : Chien blanc.
+Réalisation : Anaïs Barbeau-Lavalette
 Scénario : Valérie Beaugrand-Champagne et Anaïs Barbeau-Lavalette, d'après le roman Chien blanc de Romain Gary
 Musique : Mathieu Charbonneau, Ralph Joseph « Waahli », Christophe Lamarche Ledoux, Maxime Veilleux
 Conception artistique : Emmanuel Fréchette
 Photographie : Jonathan Decoste
-Production : Nicole Robert (Go Films)[15].
+Production : Nicole Robert (Go Films).
 Pays de production :  Canada
 Langue originale : français
 Genre : drame
 Date de sortie :
-Canada : 9 novembre 2022[16],[17],[18]
+Canada : 9 novembre 2022
 France : 22 mai 2024</t>
         </is>
       </c>
@@ -585,7 +601,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Denis Ménochet : Romain Gary
 Kacey Rohl : Jean Seberg
@@ -625,12 +643,14 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En décembre 2019, la Société de développement des entreprises culturelles (SODEC) annonce sa participation financière dans la réalisation de ce long métrage[19]. 
-Le tournage de Chien blanc originellement prévu pour l'été ou l'automne 2020 a été retardé en 2021 en raison de la Covid[20],[21],[22],[23]. 
-Il est distribué au Canada par MK2 Mile End et tourné en majeure partie à Montréal[24]. 
-Au printemps de 2021, la production reçoit l'accréditation du programme On tourne vert visant à effectuer une transition de pratiques durables et écologiques sur leurs différents plateaux de tournage[25].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En décembre 2019, la Société de développement des entreprises culturelles (SODEC) annonce sa participation financière dans la réalisation de ce long métrage. 
+Le tournage de Chien blanc originellement prévu pour l'été ou l'automne 2020 a été retardé en 2021 en raison de la Covid. 
+Il est distribué au Canada par MK2 Mile End et tourné en majeure partie à Montréal. 
+Au printemps de 2021, la production reçoit l'accréditation du programme On tourne vert visant à effectuer une transition de pratiques durables et écologiques sur leurs différents plateaux de tournage.
 </t>
         </is>
       </c>
